--- a/medicine/Enfance/Les_Royaumes_du_Nord/Les_Royaumes_du_Nord.xlsx
+++ b/medicine/Enfance/Les_Royaumes_du_Nord/Les_Royaumes_du_Nord.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Les Royaumes du Nord (Northern Lights[1] au Royaume-Uni ou The Golden Compass[2] aux États-Unis et au Canada) est le premier tome de la trilogie À la croisée des mondes (His Dark Materials) écrite par Philip Pullman.
+Les Royaumes du Nord (Northern Lights au Royaume-Uni ou The Golden Compass aux États-Unis et au Canada) est le premier tome de la trilogie À la croisée des mondes (His Dark Materials) écrite par Philip Pullman.
 Il est publié au Royaume-Uni aux éditions Scholastic Ltd en 1995, puis en France aux éditions Gallimard Jeunesse en 1998 (traduction de Jean Esch). Ce tome est suivi de La Tour des anges.
 </t>
         </is>
@@ -513,7 +525,9 @@
           <t>Résumé</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Élevée dans le très austère Jordan College à Oxford, Lyra Belacqua accompagnée de son dæmon Pantalaimon, apprend accidentellement l'existence de la Poussière, une étrange particule élémentaire que le Magisterium (l'organe exécutif de l'Église) pense être la conséquence du Péché originel. L’Église a en effet observé que cette Poussière est moins attirée par l'innocence des enfants que par l'expérience des adultes. Des savants, avec la bénédiction de l’Église, poursuivent d'horribles expériences sur la Poussière en utilisant des enfants kidnappés dans toute l'Angleterre et envoyés dans les royaumes glacés du Grand Nord.
 Lyra s'engage à la poursuite de ces kidnappeurs d'enfants, surnommés « les Enfourneurs », qui ont notamment capturé son meilleur ami Roger et d'autres enfants de sa connaissance. Elle devra d'abord échapper à Mme Coulter, une femme aussi charmante et intelligente que calculatrice et diabolique, qui l'a accueillie chez elle et tente de l'enjôler. Elle apprendra plus tard que Mme Coulter est sa mère et qu'elle joue un rôle clé dans l'enlèvement des enfants et les expériences sur la Poussière.
@@ -547,7 +561,9 @@
           <t>Trilogie À la croisée des mondes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Pour avoir des informations sur la genèse et la rédaction, l'univers, le genre littéraire, les thèmes, l'analyse, l'accueil, les controverses, les adaptations, la postérité du roman, voir l'article traitant de la trilogie À la croisée des mondes.</t>
         </is>
